--- a/BackTest/2019-10-17 BackTest LBA.xlsx
+++ b/BackTest/2019-10-17 BackTest LBA.xlsx
@@ -1015,7 +1015,9 @@
       <c r="J12" t="n">
         <v>0.6000000000000032</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L12" t="n">
         <v>11.86</v>
       </c>
@@ -1072,7 +1074,9 @@
       <c r="J13" t="n">
         <v>0.6000000000000032</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>19.99999999999986</v>
+      </c>
       <c r="L13" t="n">
         <v>11.88</v>
       </c>
@@ -1129,7 +1133,9 @@
       <c r="J14" t="n">
         <v>0.7000000000000028</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>20.00000000000028</v>
+      </c>
       <c r="L14" t="n">
         <v>11.88</v>
       </c>
@@ -1182,7 +1188,9 @@
       <c r="J15" t="n">
         <v>0.7000000000000028</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L15" t="n">
         <v>11.89</v>
       </c>
@@ -1239,7 +1247,9 @@
       <c r="J16" t="n">
         <v>0.7000000000000028</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L16" t="n">
         <v>11.88</v>
       </c>
@@ -1294,7 +1304,9 @@
       <c r="J17" t="n">
         <v>0.7000000000000028</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L17" t="n">
         <v>11.87</v>
       </c>
@@ -1349,7 +1361,9 @@
       <c r="J18" t="n">
         <v>0.7000000000000028</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-100</v>
+      </c>
       <c r="L18" t="n">
         <v>11.86</v>
       </c>
@@ -1404,7 +1418,9 @@
       <c r="J19" t="n">
         <v>0.8000000000000025</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="n">
         <v>11.85</v>
       </c>
@@ -1459,7 +1475,9 @@
       <c r="J20" t="n">
         <v>0.9000000000000021</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L20" t="n">
         <v>11.84</v>
       </c>
@@ -1514,7 +1532,9 @@
       <c r="J21" t="n">
         <v>1.000000000000004</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-50.00000000000022</v>
+      </c>
       <c r="L21" t="n">
         <v>11.82</v>
       </c>
@@ -1569,7 +1589,9 @@
       <c r="J22" t="n">
         <v>1.200000000000005</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>11.82</v>
       </c>
@@ -1617,7 +1639,7 @@
         <v>1.200000000000005</v>
       </c>
       <c r="K23" t="n">
-        <v>16.66666666666669</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L23" t="n">
         <v>11.82</v>
@@ -1666,7 +1688,7 @@
         <v>1.200000000000005</v>
       </c>
       <c r="K24" t="n">
-        <v>9.090909090909033</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L24" t="n">
         <v>11.83</v>
@@ -1715,7 +1737,7 @@
         <v>1.200000000000005</v>
       </c>
       <c r="K25" t="n">
-        <v>20.00000000000007</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L25" t="n">
         <v>11.84</v>
@@ -1764,7 +1786,7 @@
         <v>1.200000000000005</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L26" t="n">
         <v>11.85</v>
@@ -1813,7 +1835,7 @@
         <v>1.400000000000006</v>
       </c>
       <c r="K27" t="n">
-        <v>-20.00000000000007</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L27" t="n">
         <v>11.84</v>
@@ -1862,7 +1884,7 @@
         <v>1.500000000000007</v>
       </c>
       <c r="K28" t="n">
-        <v>-9.090909090909033</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L28" t="n">
         <v>11.84</v>
@@ -1911,7 +1933,7 @@
         <v>1.500000000000007</v>
       </c>
       <c r="K29" t="n">
-        <v>-19.99999999999986</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>11.83</v>
@@ -1960,7 +1982,7 @@
         <v>1.500000000000007</v>
       </c>
       <c r="K30" t="n">
-        <v>-11.11111111111102</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L30" t="n">
         <v>11.83</v>
@@ -2009,7 +2031,7 @@
         <v>1.600000000000009</v>
       </c>
       <c r="K31" t="n">
-        <v>-20</v>
+        <v>-49.99999999999978</v>
       </c>
       <c r="L31" t="n">
         <v>11.83</v>
@@ -2060,7 +2082,7 @@
         <v>1.600000000000009</v>
       </c>
       <c r="K32" t="n">
-        <v>-20</v>
+        <v>-49.99999999999978</v>
       </c>
       <c r="L32" t="n">
         <v>11.81</v>
@@ -2111,7 +2133,7 @@
         <v>1.70000000000001</v>
       </c>
       <c r="K33" t="n">
-        <v>-9.090909090909003</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L33" t="n">
         <v>11.8</v>
@@ -2162,7 +2184,7 @@
         <v>1.70000000000001</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L34" t="n">
         <v>11.79</v>
@@ -2219,7 +2241,7 @@
         <v>1.800000000000011</v>
       </c>
       <c r="K35" t="n">
-        <v>-9.09090909090915</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L35" t="n">
         <v>11.77</v>
@@ -2278,7 +2300,7 @@
         <v>1.900000000000013</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L36" t="n">
         <v>11.76</v>
@@ -2467,7 +2489,7 @@
         <v>2.000000000000014</v>
       </c>
       <c r="K39" t="n">
-        <v>-16.66666666666659</v>
+        <v>-20</v>
       </c>
       <c r="L39" t="n">
         <v>11.76</v>
@@ -2530,7 +2552,7 @@
         <v>2.100000000000016</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L40" t="n">
         <v>11.76</v>
@@ -2593,7 +2615,7 @@
         <v>2.100000000000016</v>
       </c>
       <c r="K41" t="n">
-        <v>9.09090909090912</v>
+        <v>20</v>
       </c>
       <c r="L41" t="n">
         <v>11.77</v>
@@ -2656,7 +2678,7 @@
         <v>2.100000000000016</v>
       </c>
       <c r="K42" t="n">
-        <v>-11.11111111111093</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>11.78</v>
@@ -2719,7 +2741,7 @@
         <v>2.100000000000016</v>
       </c>
       <c r="K43" t="n">
-        <v>-11.11111111111093</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>11.78</v>
@@ -2782,7 +2804,7 @@
         <v>2.200000000000015</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>49.99999999999978</v>
       </c>
       <c r="L44" t="n">
         <v>11.79</v>
@@ -2845,7 +2867,7 @@
         <v>2.200000000000015</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L45" t="n">
         <v>11.81</v>
@@ -2904,7 +2926,7 @@
         <v>2.400000000000016</v>
       </c>
       <c r="K46" t="n">
-        <v>-16.66666666666659</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L46" t="n">
         <v>11.8</v>
@@ -2967,7 +2989,7 @@
         <v>2.500000000000018</v>
       </c>
       <c r="K47" t="n">
-        <v>9.09090909090912</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>11.8</v>
@@ -3028,7 +3050,7 @@
         <v>2.500000000000018</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L48" t="n">
         <v>11.8</v>
@@ -3085,7 +3107,7 @@
         <v>2.600000000000017</v>
       </c>
       <c r="K49" t="n">
-        <v>9.090909090908973</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L49" t="n">
         <v>11.82</v>
@@ -3144,7 +3166,7 @@
         <v>2.800000000000018</v>
       </c>
       <c r="K50" t="n">
-        <v>-7.692307692307734</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L50" t="n">
         <v>11.81</v>
@@ -3207,7 +3229,7 @@
         <v>2.90000000000002</v>
       </c>
       <c r="K51" t="n">
-        <v>7.692307692307734</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>11.81</v>
@@ -3270,7 +3292,7 @@
         <v>2.90000000000002</v>
       </c>
       <c r="K52" t="n">
-        <v>7.692307692307734</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>11.81</v>
@@ -3333,7 +3355,7 @@
         <v>2.90000000000002</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L53" t="n">
         <v>11.81</v>
@@ -3392,7 +3414,7 @@
         <v>2.90000000000002</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L54" t="n">
         <v>11.8</v>
@@ -3451,7 +3473,7 @@
         <v>2.90000000000002</v>
       </c>
       <c r="K55" t="n">
-        <v>9.09090909090915</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L55" t="n">
         <v>11.79</v>
@@ -3569,7 +3591,7 @@
         <v>3.00000000000002</v>
       </c>
       <c r="K57" t="n">
-        <v>9.090909090909003</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L57" t="n">
         <v>11.81</v>
@@ -3628,7 +3650,7 @@
         <v>3.100000000000019</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L58" t="n">
         <v>11.81</v>
@@ -3687,7 +3709,7 @@
         <v>3.200000000000019</v>
       </c>
       <c r="K59" t="n">
-        <v>16.66666666666669</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L59" t="n">
         <v>11.81</v>
@@ -3742,7 +3764,7 @@
         <v>3.200000000000019</v>
       </c>
       <c r="K60" t="n">
-        <v>9.090909090909033</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L60" t="n">
         <v>11.83</v>
@@ -3799,7 +3821,7 @@
         <v>3.200000000000019</v>
       </c>
       <c r="K61" t="n">
-        <v>9.090909090909033</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L61" t="n">
         <v>11.84</v>
@@ -3856,7 +3878,7 @@
         <v>3.200000000000019</v>
       </c>
       <c r="K62" t="n">
-        <v>9.090909090909033</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L62" t="n">
         <v>11.85</v>
@@ -3913,7 +3935,7 @@
         <v>3.200000000000019</v>
       </c>
       <c r="K63" t="n">
-        <v>9.090909090909033</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L63" t="n">
         <v>11.86</v>
@@ -3970,7 +3992,7 @@
         <v>3.300000000000018</v>
       </c>
       <c r="K64" t="n">
-        <v>-9.090909090909033</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>11.86</v>
@@ -4027,7 +4049,7 @@
         <v>3.300000000000018</v>
       </c>
       <c r="K65" t="n">
-        <v>-9.090909090909033</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>11.86</v>
@@ -4084,7 +4106,7 @@
         <v>3.300000000000018</v>
       </c>
       <c r="K66" t="n">
-        <v>11.11111111111124</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L66" t="n">
         <v>11.86</v>
@@ -4198,7 +4220,7 @@
         <v>3.300000000000018</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L68" t="n">
         <v>11.85</v>
@@ -4255,7 +4277,7 @@
         <v>3.300000000000018</v>
       </c>
       <c r="K69" t="n">
-        <v>-14.28571428571421</v>
+        <v>-100</v>
       </c>
       <c r="L69" t="n">
         <v>11.83999999999999</v>
@@ -4306,7 +4328,7 @@
         <v>3.300000000000018</v>
       </c>
       <c r="K70" t="n">
-        <v>20.00000000000028</v>
+        <v>-100</v>
       </c>
       <c r="L70" t="n">
         <v>11.82999999999999</v>
@@ -4357,7 +4379,7 @@
         <v>3.300000000000018</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L71" t="n">
         <v>11.82</v>
@@ -4408,7 +4430,7 @@
         <v>3.300000000000018</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L72" t="n">
         <v>11.81</v>
@@ -4462,9 +4484,7 @@
       <c r="J73" t="n">
         <v>3.300000000000018</v>
       </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>11.8</v>
       </c>
@@ -4521,9 +4541,7 @@
       <c r="J74" t="n">
         <v>3.300000000000018</v>
       </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>11.8</v>
       </c>
@@ -4580,9 +4598,7 @@
       <c r="J75" t="n">
         <v>3.300000000000018</v>
       </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>11.8</v>
       </c>
@@ -4639,9 +4655,7 @@
       <c r="J76" t="n">
         <v>3.300000000000018</v>
       </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>11.8</v>
       </c>
@@ -4698,9 +4712,7 @@
       <c r="J77" t="n">
         <v>3.300000000000018</v>
       </c>
-      <c r="K77" t="n">
-        <v>-33.33333333333333</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>11.8</v>
       </c>
@@ -4758,7 +4770,7 @@
         <v>3.400000000000018</v>
       </c>
       <c r="K78" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L78" t="n">
         <v>11.81</v>
@@ -4817,7 +4829,7 @@
         <v>3.400000000000018</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L79" t="n">
         <v>11.82</v>
@@ -4876,7 +4888,7 @@
         <v>3.400000000000018</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L80" t="n">
         <v>11.83</v>
@@ -4935,7 +4947,7 @@
         <v>3.500000000000018</v>
       </c>
       <c r="K81" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>11.83</v>

--- a/BackTest/2019-10-17 BackTest LBA.xlsx
+++ b/BackTest/2019-10-17 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N129"/>
+  <dimension ref="A1:M129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-236592.3602</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-236592.3602</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-158711.8411</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-158711.8411</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-158711.8411</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,21 @@
         <v>-93648.0796</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1051,19 @@
         <v>-58974.0796</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1088,19 @@
         <v>-62644.0796</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1125,19 @@
         <v>-62644.0796</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1162,19 @@
         <v>-62644.0796</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1201,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1236,21 @@
         <v>-62644.0796</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1275,21 @@
         <v>-62644.0796</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1314,21 @@
         <v>-62644.0796</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1355,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1390,21 @@
         <v>-62644.0796</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1429,21 @@
         <v>40020.924</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1468,17 @@
         <v>40020.924</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1503,15 @@
         <v>40020.924</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1536,15 @@
         <v>40020.924</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1569,15 @@
         <v>-59979.0759</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1602,15 @@
         <v>-59979.0759</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1635,15 @@
         <v>-59326.12289999999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1668,15 @@
         <v>-106626.1229</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1701,15 @@
         <v>-106433.1229</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1734,15 @@
         <v>-206433.1229</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1767,15 @@
         <v>-186677.0275</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1800,15 @@
         <v>-286677.0275</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1835,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1866,15 @@
         <v>-244733.4622</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1899,15 @@
         <v>-244733.4622</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +1932,15 @@
         <v>-230823.7946999999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1965,15 @@
         <v>-261192.0555999999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1998,15 @@
         <v>-261192.0555999999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +2031,15 @@
         <v>-261291.7805999999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2066,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2099,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2132,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2165,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2198,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2231,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2264,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2295,19 @@
         <v>-181564.7805999999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
+        <v>11.8</v>
+      </c>
+      <c r="J56" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2332,23 @@
         <v>-181564.7805999999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>11.8</v>
+      </c>
+      <c r="J57" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2373,23 @@
         <v>-181564.7805999999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>11.8</v>
+      </c>
+      <c r="J58" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2414,19 @@
         <v>-181564.7805999999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
+        <v>11.8</v>
+      </c>
+      <c r="J59" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,18 +2451,23 @@
         <v>-502966.8696999999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>11.8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2494,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2533,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2570,23 @@
         <v>-349716.1648999999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>11.7</v>
+      </c>
+      <c r="J63" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2611,23 @@
         <v>-351716.1648999999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>11.8</v>
+      </c>
+      <c r="J64" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2652,23 @@
         <v>-313916.1648999999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>11.7</v>
+      </c>
+      <c r="J65" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2693,23 @@
         <v>-313916.1648999999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>11.9</v>
+      </c>
+      <c r="J66" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2734,23 @@
         <v>-313916.1648999999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>11.9</v>
+      </c>
+      <c r="J67" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2777,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2816,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2855,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2894,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2933,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2972,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +3011,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +3050,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3120,22 +3087,21 @@
         <v>-528703.7903999999</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
         <v>11.8</v>
       </c>
-      <c r="K76" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3160,26 +3126,21 @@
         <v>-528703.7903999999</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
         <v>11.8</v>
       </c>
-      <c r="K77" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3204,26 +3165,21 @@
         <v>-478903.7903999999</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
         <v>11.8</v>
       </c>
-      <c r="K78" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3250,16 +3206,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3286,16 +3245,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3322,16 +3284,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3358,16 +3323,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3394,16 +3362,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3430,16 +3401,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3466,16 +3440,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3502,16 +3479,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3538,16 +3518,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3574,16 +3557,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3610,16 +3596,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3646,16 +3635,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3682,16 +3674,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3718,16 +3713,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3754,16 +3752,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3790,16 +3791,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3824,22 +3828,23 @@
         <v>-515559.0578999999</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="J95" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K95" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>11.8</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3866,22 +3871,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3906,26 +3908,21 @@
         <v>-515559.0578999999</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
         <v>11.8</v>
       </c>
-      <c r="K97" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3950,22 +3947,21 @@
         <v>-555759.0578999999</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
         <v>11.8</v>
       </c>
-      <c r="K98" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3990,26 +3986,21 @@
         <v>-545052.0578999999</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K99" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>11.8</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4034,26 +4025,21 @@
         <v>-545052.0578999999</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
         <v>11.8</v>
       </c>
-      <c r="K100" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4078,22 +4064,21 @@
         <v>-545052.0578999999</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
         <v>11.8</v>
       </c>
-      <c r="K101" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4118,26 +4103,21 @@
         <v>-545052.0578999999</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
         <v>11.8</v>
       </c>
-      <c r="K102" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4162,26 +4142,21 @@
         <v>-351473.6912999999</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
         <v>11.8</v>
       </c>
-      <c r="K103" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4208,22 +4183,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4250,22 +4222,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4292,22 +4261,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4334,22 +4300,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4376,22 +4339,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4418,22 +4378,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4460,22 +4417,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4502,22 +4456,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4544,22 +4495,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4586,22 +4534,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4628,22 +4573,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4670,22 +4612,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4712,22 +4651,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4754,22 +4690,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4796,22 +4729,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4838,22 +4768,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4880,22 +4807,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4922,22 +4846,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4964,22 +4885,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5006,22 +4924,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5048,22 +4963,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5090,22 +5002,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5132,22 +5041,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5174,22 +5080,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5216,22 +5119,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5258,24 +5158,21 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest LBA.xlsx
+++ b/BackTest/2019-10-17 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-236592.3602</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-236592.3602</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-236592.3602</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-236592.3602</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-236592.3602</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-236592.3602</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-135775.3602</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-158711.8411</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-158711.8411</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-158711.8411</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-158711.8411</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-158711.8411</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1014,15 +1014,9 @@
       <c r="H19" t="n">
         <v>2</v>
       </c>
-      <c r="I19" t="n">
-        <v>11.8</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1051,15 +1045,11 @@
         <v>-58974.0796</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1088,15 +1078,11 @@
         <v>-62644.0796</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1125,15 +1111,11 @@
         <v>-62644.0796</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1162,15 +1144,11 @@
         <v>-62644.0796</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1203,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1238,15 +1212,9 @@
       <c r="H25" t="n">
         <v>2</v>
       </c>
-      <c r="I25" t="n">
-        <v>11.8</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1275,17 +1243,11 @@
         <v>-62644.0796</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>11.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1316,15 +1278,9 @@
       <c r="H27" t="n">
         <v>2</v>
       </c>
-      <c r="I27" t="n">
-        <v>11.8</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1357,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1390,17 +1342,11 @@
         <v>-62644.0796</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>11.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1429,17 +1375,11 @@
         <v>40020.924</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>11.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1468,16 +1408,14 @@
         <v>40020.924</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
       <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -1503,7 +1441,7 @@
         <v>40020.924</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1536,7 +1474,7 @@
         <v>40020.924</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1569,7 +1507,7 @@
         <v>-59979.0759</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1602,7 +1540,7 @@
         <v>-59979.0759</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1635,7 +1573,7 @@
         <v>-59326.12289999999</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1668,7 +1606,7 @@
         <v>-106626.1229</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1701,7 +1639,7 @@
         <v>-106433.1229</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1734,7 +1672,7 @@
         <v>-206433.1229</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1767,7 +1705,7 @@
         <v>-186677.0275</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1800,7 +1738,7 @@
         <v>-286677.0275</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1833,7 +1771,7 @@
         <v>-241683.4622</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1866,7 +1804,7 @@
         <v>-244733.4622</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1899,7 +1837,7 @@
         <v>-244733.4622</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1932,7 +1870,7 @@
         <v>-230823.7946999999</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1965,7 +1903,7 @@
         <v>-261192.0555999999</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1998,7 +1936,7 @@
         <v>-261192.0555999999</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2031,7 +1969,7 @@
         <v>-261291.7805999999</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2064,7 +2002,7 @@
         <v>-181564.7805999999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2097,7 +2035,7 @@
         <v>-181564.7805999999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2130,7 +2068,7 @@
         <v>-181564.7805999999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2163,7 +2101,7 @@
         <v>-181564.7805999999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2196,7 +2134,7 @@
         <v>-181564.7805999999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2229,7 +2167,7 @@
         <v>-181564.7805999999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2262,7 +2200,7 @@
         <v>-181564.7805999999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2297,12 +2235,8 @@
       <c r="H56" t="n">
         <v>2</v>
       </c>
-      <c r="I56" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J56" t="n">
-        <v>11.8</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
@@ -2334,1591 +2268,1345 @@
       <c r="H57" t="n">
         <v>2</v>
       </c>
-      <c r="I57" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J57" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K57" t="inlineStr">
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C58" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D58" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E58" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1238.272</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-181564.7805999999</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C59" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D59" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E59" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F59" t="n">
+        <v>8784.5347</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-181564.7805999999</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C60" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D60" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E60" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F60" t="n">
+        <v>321402.0891</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-502966.8696999999</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C61" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D61" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E61" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F61" t="n">
+        <v>36379.7048</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-466587.1648999999</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C62" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D62" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E62" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F62" t="n">
+        <v>187660.7782</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-466587.1648999999</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C63" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D63" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E63" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F63" t="n">
+        <v>116871</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-349716.1648999999</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C64" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D64" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E64" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-351716.1648999999</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C65" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D65" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E65" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F65" t="n">
+        <v>37800</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-313916.1648999999</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C66" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D66" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E66" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F66" t="n">
+        <v>45127.7121</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-313916.1648999999</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C67" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D67" t="n">
+        <v>12</v>
+      </c>
+      <c r="E67" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F67" t="n">
+        <v>83486.7592</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-313916.1648999999</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>12</v>
+      </c>
+      <c r="C68" t="n">
+        <v>12</v>
+      </c>
+      <c r="D68" t="n">
+        <v>12</v>
+      </c>
+      <c r="E68" t="n">
+        <v>12</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-311416.1648999999</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>12</v>
+      </c>
+      <c r="C69" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D69" t="n">
+        <v>12</v>
+      </c>
+      <c r="E69" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F69" t="n">
+        <v>166887.6255</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-478303.7903999999</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C70" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D70" t="n">
+        <v>12</v>
+      </c>
+      <c r="E70" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F70" t="n">
+        <v>16814.7599</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-478303.7903999999</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C71" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D71" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E71" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F71" t="n">
+        <v>14663.4421</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-478303.7903999999</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C72" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D72" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E72" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F72" t="n">
+        <v>35918.4615</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-478303.7903999999</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C73" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D73" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E73" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F73" t="n">
+        <v>50400</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-528703.7903999999</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C74" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D74" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E74" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F74" t="n">
+        <v>25200</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-528703.7903999999</v>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C75" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D75" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E75" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F75" t="n">
+        <v>10250</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-528703.7903999999</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C76" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D76" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E76" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F76" t="n">
+        <v>17720</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-528703.7903999999</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C77" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D77" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E77" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F77" t="n">
+        <v>33607.5866</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-528703.7903999999</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C78" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D78" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E78" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F78" t="n">
+        <v>49800</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-478903.7903999999</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C79" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D79" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E79" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F79" t="n">
+        <v>19961.0938</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-498864.8841999999</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C80" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D80" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E80" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F80" t="n">
+        <v>22400</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-521264.8841999999</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C81" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D81" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E81" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F81" t="n">
+        <v>27955</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-493309.8841999999</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C82" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D82" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E82" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F82" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-493309.8841999999</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C83" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D83" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E83" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F83" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-493309.8841999999</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C84" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D84" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E84" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F84" t="n">
+        <v>18800</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-493309.8841999999</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C85" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D85" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E85" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F85" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-493309.8841999999</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C86" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D86" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E86" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F86" t="n">
+        <v>84725.9782</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-578035.8623999999</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C87" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D87" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E87" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F87" t="n">
+        <v>4197.0741</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-573838.7882999999</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C88" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D88" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E88" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F88" t="n">
+        <v>4564.1866</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-573838.7882999999</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C89" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D89" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E89" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F89" t="n">
+        <v>197.7694</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-573838.7882999999</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C90" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D90" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E90" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F90" t="n">
+        <v>10600</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-584438.7882999999</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C91" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D91" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E91" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F91" t="n">
+        <v>11600</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-584438.7882999999</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C92" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D92" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E92" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F92" t="n">
+        <v>31780.8474</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-552657.9408999999</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C93" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D93" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E93" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F93" t="n">
+        <v>53189.9606</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-552657.9408999999</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C94" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D94" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E94" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F94" t="n">
+        <v>23600</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-576257.9408999999</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C95" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D95" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E95" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F95" t="n">
+        <v>60698.883</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-515559.0578999999</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J95" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C96" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D96" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E96" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F96" t="n">
+        <v>51500</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-515559.0578999999</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K96" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C58" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D58" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E58" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F58" t="n">
-        <v>1238.272</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-181564.7805999999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J58" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K58" t="inlineStr">
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C97" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D97" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E97" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F97" t="n">
+        <v>28718.6172</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-515559.0578999999</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K97" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C59" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D59" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E59" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F59" t="n">
-        <v>8784.5347</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-181564.7805999999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J59" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C60" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D60" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E60" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F60" t="n">
-        <v>321402.0891</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-502966.8696999999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J60" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C61" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D61" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E61" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F61" t="n">
-        <v>36379.7048</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-466587.1648999999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C62" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D62" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E62" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F62" t="n">
-        <v>187660.7782</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-466587.1648999999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C63" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D63" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E63" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F63" t="n">
-        <v>116871</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-349716.1648999999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J63" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C64" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D64" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-351716.1648999999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J64" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D65" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F65" t="n">
-        <v>37800</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-313916.1648999999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J65" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D66" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F66" t="n">
-        <v>45127.7121</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-313916.1648999999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J66" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D67" t="n">
-        <v>12</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F67" t="n">
-        <v>83486.7592</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-313916.1648999999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J67" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>12</v>
-      </c>
-      <c r="C68" t="n">
-        <v>12</v>
-      </c>
-      <c r="D68" t="n">
-        <v>12</v>
-      </c>
-      <c r="E68" t="n">
-        <v>12</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2500</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-311416.1648999999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>12</v>
-      </c>
-      <c r="C69" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D69" t="n">
-        <v>12</v>
-      </c>
-      <c r="E69" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F69" t="n">
-        <v>166887.6255</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-478303.7903999999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C70" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D70" t="n">
-        <v>12</v>
-      </c>
-      <c r="E70" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F70" t="n">
-        <v>16814.7599</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-478303.7903999999</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C71" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D71" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E71" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F71" t="n">
-        <v>14663.4421</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-478303.7903999999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C72" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D72" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E72" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F72" t="n">
-        <v>35918.4615</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-478303.7903999999</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C73" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D73" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E73" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F73" t="n">
-        <v>50400</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-528703.7903999999</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C74" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D74" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E74" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F74" t="n">
-        <v>25200</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-528703.7903999999</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C75" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D75" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E75" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F75" t="n">
-        <v>10250</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-528703.7903999999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C76" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D76" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E76" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F76" t="n">
-        <v>17720</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-528703.7903999999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C77" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D77" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E77" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F77" t="n">
-        <v>33607.5866</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-528703.7903999999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C78" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D78" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E78" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F78" t="n">
-        <v>49800</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-478903.7903999999</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C79" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D79" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E79" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F79" t="n">
-        <v>19961.0938</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-498864.8841999999</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C80" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D80" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E80" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F80" t="n">
-        <v>22400</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-521264.8841999999</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C81" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D81" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E81" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F81" t="n">
-        <v>27955</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-493309.8841999999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C82" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D82" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E82" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F82" t="n">
-        <v>40000</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-493309.8841999999</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C83" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D83" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E83" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F83" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-493309.8841999999</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C84" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D84" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E84" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F84" t="n">
-        <v>18800</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-493309.8841999999</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C85" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D85" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E85" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F85" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-493309.8841999999</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C86" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D86" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E86" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F86" t="n">
-        <v>84725.9782</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-578035.8623999999</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C87" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D87" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E87" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F87" t="n">
-        <v>4197.0741</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-573838.7882999999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C88" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D88" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E88" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F88" t="n">
-        <v>4564.1866</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-573838.7882999999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C89" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D89" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E89" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F89" t="n">
-        <v>197.7694</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-573838.7882999999</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C90" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D90" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E90" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F90" t="n">
-        <v>10600</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-584438.7882999999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C91" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D91" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E91" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F91" t="n">
-        <v>11600</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-584438.7882999999</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C92" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D92" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E92" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F92" t="n">
-        <v>31780.8474</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-552657.9408999999</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C93" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D93" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E93" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F93" t="n">
-        <v>53189.9606</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-552657.9408999999</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C94" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D94" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E94" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F94" t="n">
-        <v>23600</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-576257.9408999999</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C95" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D95" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E95" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F95" t="n">
-        <v>60698.883</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-515559.0578999999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J95" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C96" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D96" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E96" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F96" t="n">
-        <v>51500</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-515559.0578999999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C97" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D97" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E97" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F97" t="n">
-        <v>28718.6172</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-515559.0578999999</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3950,14 +3638,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3989,14 +3671,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4028,14 +3704,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4067,14 +3737,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4106,14 +3770,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4145,14 +3803,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4184,14 +3836,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4223,14 +3869,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4262,14 +3902,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4301,14 +3935,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4340,14 +3968,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4379,14 +4001,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4418,14 +4034,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4457,14 +4067,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4496,14 +4100,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4535,14 +4133,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4574,14 +4166,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4613,14 +4199,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4652,14 +4232,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4691,14 +4265,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4730,14 +4298,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4769,14 +4331,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4808,14 +4364,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4847,14 +4397,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4886,14 +4430,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4925,14 +4463,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4964,14 +4496,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5003,14 +4529,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5042,14 +4562,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5081,14 +4595,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5120,14 +4628,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5159,20 +4661,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
       <c r="M129" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest LBA.xlsx
+++ b/BackTest/2019-10-17 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-236592.3602</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-236592.3602</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-236592.3602</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-236592.3602</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-236592.3602</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-236592.3602</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-135775.3602</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-158711.8411</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,10 +715,14 @@
         <v>-158711.8411</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
@@ -748,11 +752,19 @@
         <v>-158711.8411</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +793,17 @@
         <v>-158711.8411</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +832,17 @@
         <v>-158711.8411</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +874,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +910,19 @@
         <v>-158711.8411</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +954,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +993,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1032,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1068,19 @@
         <v>-93648.0796</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J19" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1109,17 @@
         <v>-58974.0796</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1148,17 @@
         <v>-62644.0796</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1187,17 @@
         <v>-62644.0796</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1226,17 @@
         <v>-62644.0796</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1268,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1304,17 @@
         <v>-62644.0796</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1346,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1382,17 @@
         <v>-62644.0796</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1424,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1463,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1502,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1541,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1580,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1616,17 @@
         <v>40020.924</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1655,17 @@
         <v>-59979.0759</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1694,17 @@
         <v>-59979.0759</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1733,17 @@
         <v>-59326.12289999999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1772,17 @@
         <v>-106626.1229</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1811,17 @@
         <v>-106433.1229</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1850,17 @@
         <v>-206433.1229</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1889,17 @@
         <v>-186677.0275</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1928,17 @@
         <v>-286677.0275</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1967,17 @@
         <v>-241683.4622</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +2006,17 @@
         <v>-244733.4622</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2045,17 @@
         <v>-244733.4622</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2084,17 @@
         <v>-230823.7946999999</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2123,17 @@
         <v>-261192.0555999999</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2162,17 @@
         <v>-261192.0555999999</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2201,17 @@
         <v>-261291.7805999999</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2240,17 @@
         <v>-181564.7805999999</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2279,17 @@
         <v>-181564.7805999999</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2318,17 @@
         <v>-181564.7805999999</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2357,17 @@
         <v>-181564.7805999999</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2396,17 @@
         <v>-181564.7805999999</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2435,17 @@
         <v>-181564.7805999999</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2474,17 @@
         <v>-181564.7805999999</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2513,17 @@
         <v>-181564.7805999999</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2552,17 @@
         <v>-181564.7805999999</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2591,17 @@
         <v>-181564.7805999999</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2630,17 @@
         <v>-181564.7805999999</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2669,17 @@
         <v>-502966.8696999999</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2708,17 @@
         <v>-466587.1648999999</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2747,19 @@
         <v>-466587.1648999999</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J62" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2788,19 @@
         <v>-349716.1648999999</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J63" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2832,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2868,19 @@
         <v>-313916.1648999999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J65" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2912,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2951,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +2990,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +3029,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +3065,17 @@
         <v>-478303.7903999999</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +3104,17 @@
         <v>-478303.7903999999</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +3143,17 @@
         <v>-478303.7903999999</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +3182,17 @@
         <v>-528703.7903999999</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +3221,17 @@
         <v>-528703.7903999999</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +3260,17 @@
         <v>-528703.7903999999</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3302,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3341,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3380,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3419,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3458,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3497,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3536,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3575,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3614,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3653,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3692,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3731,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3770,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3809,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3848,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3884,19 @@
         <v>-584438.7882999999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J91" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3928,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +3967,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +4006,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3526,9 +4048,13 @@
         <v>11.7</v>
       </c>
       <c r="J95" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
+        <v>11.8</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3561,11 +4087,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L96" t="n">
@@ -3600,11 +4126,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -3635,13 +4161,19 @@
         <v>-555759.0578999999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L98" t="n">
-        <v>1</v>
+        <v>0.9865254237288135</v>
       </c>
       <c r="M98" t="inlineStr"/>
     </row>
@@ -4031,7 +4563,7 @@
         <v>-270235.6384999999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4097,7 +4629,7 @@
         <v>-270235.6384999999</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4669,6 +5201,6 @@
       <c r="M129" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest LBA.xlsx
+++ b/BackTest/2019-10-17 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M129"/>
+  <dimension ref="A1:L129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>16252.6682</v>
       </c>
       <c r="G2" t="n">
-        <v>-236592.3602</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>20000</v>
       </c>
       <c r="G3" t="n">
-        <v>-236592.3602</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>10000</v>
       </c>
       <c r="G4" t="n">
-        <v>-236592.3602</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>58764.591</v>
       </c>
       <c r="G5" t="n">
-        <v>-236592.3602</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>40000</v>
       </c>
       <c r="G6" t="n">
-        <v>-236592.3602</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>1235.409</v>
       </c>
       <c r="G7" t="n">
-        <v>-236592.3602</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>100817</v>
       </c>
       <c r="G8" t="n">
-        <v>-135775.3602</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>22936.4809</v>
       </c>
       <c r="G9" t="n">
-        <v>-158711.8411</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>13990</v>
       </c>
       <c r="G10" t="n">
-        <v>-158711.8411</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,21 @@
         <v>25756.3212</v>
       </c>
       <c r="G11" t="n">
-        <v>-158711.8411</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +749,21 @@
         <v>13325.7152</v>
       </c>
       <c r="G12" t="n">
-        <v>-158711.8411</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +785,21 @@
         <v>1571</v>
       </c>
       <c r="G13" t="n">
-        <v>-158711.8411</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +821,21 @@
         <v>20046.4394</v>
       </c>
       <c r="G14" t="n">
-        <v>-158711.8411</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +857,21 @@
         <v>541</v>
       </c>
       <c r="G15" t="n">
-        <v>-158711.8411</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +893,19 @@
         <v>69698.76149999999</v>
       </c>
       <c r="G16" t="n">
-        <v>-89013.0796</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +927,19 @@
         <v>4635</v>
       </c>
       <c r="G17" t="n">
-        <v>-93648.0796</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +961,19 @@
         <v>16784.8963</v>
       </c>
       <c r="G18" t="n">
-        <v>-93648.0796</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +995,19 @@
         <v>22557.1037</v>
       </c>
       <c r="G19" t="n">
-        <v>-93648.0796</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1029,19 @@
         <v>34674</v>
       </c>
       <c r="G20" t="n">
-        <v>-58974.0796</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1063,19 @@
         <v>3670</v>
       </c>
       <c r="G21" t="n">
-        <v>-62644.0796</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1097,19 @@
         <v>72244.40429999999</v>
       </c>
       <c r="G22" t="n">
-        <v>-62644.0796</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1131,19 @@
         <v>1218</v>
       </c>
       <c r="G23" t="n">
-        <v>-62644.0796</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1165,19 @@
         <v>60603.525</v>
       </c>
       <c r="G24" t="n">
-        <v>-62644.0796</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1199,19 @@
         <v>77562.5836</v>
       </c>
       <c r="G25" t="n">
-        <v>-62644.0796</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1233,19 @@
         <v>3299</v>
       </c>
       <c r="G26" t="n">
-        <v>-62644.0796</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1267,19 @@
         <v>95097.03939999999</v>
       </c>
       <c r="G27" t="n">
-        <v>-62644.0796</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1301,19 @@
         <v>197</v>
       </c>
       <c r="G28" t="n">
-        <v>-62644.0796</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1335,19 @@
         <v>10825.2127</v>
       </c>
       <c r="G29" t="n">
-        <v>-62644.0796</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1369,19 @@
         <v>102665.0036</v>
       </c>
       <c r="G30" t="n">
-        <v>40020.924</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1403,19 @@
         <v>52200</v>
       </c>
       <c r="G31" t="n">
-        <v>40020.924</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1437,19 @@
         <v>17000</v>
       </c>
       <c r="G32" t="n">
-        <v>40020.924</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1471,19 @@
         <v>17180.9447</v>
       </c>
       <c r="G33" t="n">
-        <v>40020.924</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1505,19 @@
         <v>99999.9999</v>
       </c>
       <c r="G34" t="n">
-        <v>-59979.0759</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1539,19 @@
         <v>0.0001</v>
       </c>
       <c r="G35" t="n">
-        <v>-59979.0759</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1573,19 @@
         <v>652.953</v>
       </c>
       <c r="G36" t="n">
-        <v>-59326.12289999999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1607,19 @@
         <v>47300</v>
       </c>
       <c r="G37" t="n">
-        <v>-106626.1229</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1641,19 @@
         <v>193</v>
       </c>
       <c r="G38" t="n">
-        <v>-106433.1229</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1675,19 @@
         <v>100000</v>
       </c>
       <c r="G39" t="n">
-        <v>-206433.1229</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1709,19 @@
         <v>19756.0954</v>
       </c>
       <c r="G40" t="n">
-        <v>-186677.0275</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1743,19 @@
         <v>100000</v>
       </c>
       <c r="G41" t="n">
-        <v>-286677.0275</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1777,19 @@
         <v>44993.5653</v>
       </c>
       <c r="G42" t="n">
-        <v>-241683.4622</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1811,19 @@
         <v>3050</v>
       </c>
       <c r="G43" t="n">
-        <v>-244733.4622</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1845,19 @@
         <v>28741.796</v>
       </c>
       <c r="G44" t="n">
-        <v>-244733.4622</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1879,19 @@
         <v>13909.6675</v>
       </c>
       <c r="G45" t="n">
-        <v>-230823.7946999999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1913,19 @@
         <v>30368.2609</v>
       </c>
       <c r="G46" t="n">
-        <v>-261192.0555999999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1947,19 @@
         <v>5171.7391</v>
       </c>
       <c r="G47" t="n">
-        <v>-261192.0555999999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1981,19 @@
         <v>99.72499999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>-261291.7805999999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2015,19 @@
         <v>79727</v>
       </c>
       <c r="G49" t="n">
-        <v>-181564.7805999999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2049,19 @@
         <v>85357.7931</v>
       </c>
       <c r="G50" t="n">
-        <v>-181564.7805999999</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2083,19 @@
         <v>127958.9851</v>
       </c>
       <c r="G51" t="n">
-        <v>-181564.7805999999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2117,19 @@
         <v>3000</v>
       </c>
       <c r="G52" t="n">
-        <v>-181564.7805999999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2151,19 @@
         <v>10000</v>
       </c>
       <c r="G53" t="n">
-        <v>-181564.7805999999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2185,19 @@
         <v>30120</v>
       </c>
       <c r="G54" t="n">
-        <v>-181564.7805999999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2219,19 @@
         <v>12150</v>
       </c>
       <c r="G55" t="n">
-        <v>-181564.7805999999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2253,19 @@
         <v>25617.4481</v>
       </c>
       <c r="G56" t="n">
-        <v>-181564.7805999999</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2287,19 @@
         <v>50200</v>
       </c>
       <c r="G57" t="n">
-        <v>-181564.7805999999</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2321,19 @@
         <v>1238.272</v>
       </c>
       <c r="G58" t="n">
-        <v>-181564.7805999999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2355,19 @@
         <v>8784.5347</v>
       </c>
       <c r="G59" t="n">
-        <v>-181564.7805999999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2389,19 @@
         <v>321402.0891</v>
       </c>
       <c r="G60" t="n">
-        <v>-502966.8696999999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2423,19 @@
         <v>36379.7048</v>
       </c>
       <c r="G61" t="n">
-        <v>-466587.1648999999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2457,19 @@
         <v>187660.7782</v>
       </c>
       <c r="G62" t="n">
-        <v>-466587.1648999999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2491,21 @@
         <v>116871</v>
       </c>
       <c r="G63" t="n">
-        <v>-349716.1648999999</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2527,19 @@
         <v>2000</v>
       </c>
       <c r="G64" t="n">
-        <v>-351716.1648999999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2561,19 @@
         <v>37800</v>
       </c>
       <c r="G65" t="n">
-        <v>-313916.1648999999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2595,19 @@
         <v>45127.7121</v>
       </c>
       <c r="G66" t="n">
-        <v>-313916.1648999999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2629,19 @@
         <v>83486.7592</v>
       </c>
       <c r="G67" t="n">
-        <v>-313916.1648999999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2663,19 @@
         <v>2500</v>
       </c>
       <c r="G68" t="n">
-        <v>-311416.1648999999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2697,19 @@
         <v>166887.6255</v>
       </c>
       <c r="G69" t="n">
-        <v>-478303.7903999999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2731,19 @@
         <v>16814.7599</v>
       </c>
       <c r="G70" t="n">
-        <v>-478303.7903999999</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2765,19 @@
         <v>14663.4421</v>
       </c>
       <c r="G71" t="n">
-        <v>-478303.7903999999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2799,17 @@
         <v>35918.4615</v>
       </c>
       <c r="G72" t="n">
-        <v>-478303.7903999999</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2831,15 @@
         <v>50400</v>
       </c>
       <c r="G73" t="n">
-        <v>-528703.7903999999</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2861,15 @@
         <v>25200</v>
       </c>
       <c r="G74" t="n">
-        <v>-528703.7903999999</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2891,15 @@
         <v>10250</v>
       </c>
       <c r="G75" t="n">
-        <v>-528703.7903999999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2921,15 @@
         <v>17720</v>
       </c>
       <c r="G76" t="n">
-        <v>-528703.7903999999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2951,15 @@
         <v>33607.5866</v>
       </c>
       <c r="G77" t="n">
-        <v>-528703.7903999999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2981,15 @@
         <v>49800</v>
       </c>
       <c r="G78" t="n">
-        <v>-478903.7903999999</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +3011,15 @@
         <v>19961.0938</v>
       </c>
       <c r="G79" t="n">
-        <v>-498864.8841999999</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3041,15 @@
         <v>22400</v>
       </c>
       <c r="G80" t="n">
-        <v>-521264.8841999999</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3071,15 @@
         <v>27955</v>
       </c>
       <c r="G81" t="n">
-        <v>-493309.8841999999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3101,15 @@
         <v>40000</v>
       </c>
       <c r="G82" t="n">
-        <v>-493309.8841999999</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3131,15 @@
         <v>10000</v>
       </c>
       <c r="G83" t="n">
-        <v>-493309.8841999999</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3161,15 @@
         <v>18800</v>
       </c>
       <c r="G84" t="n">
-        <v>-493309.8841999999</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3191,15 @@
         <v>6000</v>
       </c>
       <c r="G85" t="n">
-        <v>-493309.8841999999</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3221,15 @@
         <v>84725.9782</v>
       </c>
       <c r="G86" t="n">
-        <v>-578035.8623999999</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3251,15 @@
         <v>4197.0741</v>
       </c>
       <c r="G87" t="n">
-        <v>-573838.7882999999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3281,15 @@
         <v>4564.1866</v>
       </c>
       <c r="G88" t="n">
-        <v>-573838.7882999999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3311,15 @@
         <v>197.7694</v>
       </c>
       <c r="G89" t="n">
-        <v>-573838.7882999999</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3341,15 @@
         <v>10600</v>
       </c>
       <c r="G90" t="n">
-        <v>-584438.7882999999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,22 +3371,15 @@
         <v>11600</v>
       </c>
       <c r="G91" t="n">
-        <v>-584438.7882999999</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J91" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3422,26 +3401,15 @@
         <v>31780.8474</v>
       </c>
       <c r="G92" t="n">
-        <v>-552657.9408999999</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J92" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3463,26 +3431,15 @@
         <v>53189.9606</v>
       </c>
       <c r="G93" t="n">
-        <v>-552657.9408999999</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J93" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3504,26 +3461,19 @@
         <v>23600</v>
       </c>
       <c r="G94" t="n">
-        <v>-576257.9408999999</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>11.8</v>
       </c>
       <c r="I94" t="n">
         <v>11.8</v>
       </c>
-      <c r="J94" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3545,26 +3495,21 @@
         <v>60698.883</v>
       </c>
       <c r="G95" t="n">
-        <v>-515559.0578999999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J95" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>11.8</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3586,26 +3531,21 @@
         <v>51500</v>
       </c>
       <c r="G96" t="n">
-        <v>-515559.0578999999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="n">
         <v>11.8</v>
       </c>
-      <c r="J96" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3627,24 +3567,15 @@
         <v>28718.6172</v>
       </c>
       <c r="G97" t="n">
-        <v>-515559.0578999999</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3666,26 +3597,15 @@
         <v>40200</v>
       </c>
       <c r="G98" t="n">
-        <v>-555759.0578999999</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J98" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3707,26 +3627,19 @@
         <v>10707</v>
       </c>
       <c r="G99" t="n">
-        <v>-545052.0578999999</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>11.7</v>
       </c>
       <c r="I99" t="n">
         <v>11.7</v>
       </c>
-      <c r="J99" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3748,26 +3661,21 @@
         <v>32346.1713</v>
       </c>
       <c r="G100" t="n">
-        <v>-545052.0578999999</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>11.7</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3789,26 +3697,21 @@
         <v>301.5231</v>
       </c>
       <c r="G101" t="n">
-        <v>-545052.0578999999</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J101" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>11.7</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3830,26 +3733,15 @@
         <v>52600</v>
       </c>
       <c r="G102" t="n">
-        <v>-545052.0578999999</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J102" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3871,26 +3763,15 @@
         <v>193578.3666</v>
       </c>
       <c r="G103" t="n">
-        <v>-351473.6912999999</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J103" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3912,24 +3793,15 @@
         <v>52175.7142</v>
       </c>
       <c r="G104" t="n">
-        <v>-351473.6912999999</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3951,24 +3823,15 @@
         <v>50000</v>
       </c>
       <c r="G105" t="n">
-        <v>-401473.6912999999</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3990,26 +3853,15 @@
         <v>24187.322</v>
       </c>
       <c r="G106" t="n">
-        <v>-377286.3692999999</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J106" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4031,26 +3883,15 @@
         <v>3981.3764</v>
       </c>
       <c r="G107" t="n">
-        <v>-377286.3692999999</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J107" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4072,26 +3913,15 @@
         <v>114263.7743</v>
       </c>
       <c r="G108" t="n">
-        <v>-263022.5949999999</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J108" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4113,24 +3943,15 @@
         <v>9000</v>
       </c>
       <c r="G109" t="n">
-        <v>-272022.5949999999</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4152,24 +3973,15 @@
         <v>1786.9565</v>
       </c>
       <c r="G110" t="n">
-        <v>-270235.6384999999</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4191,24 +4003,15 @@
         <v>189</v>
       </c>
       <c r="G111" t="n">
-        <v>-270235.6384999999</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4230,24 +4033,15 @@
         <v>1826</v>
       </c>
       <c r="G112" t="n">
-        <v>-270235.6384999999</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4269,24 +4063,15 @@
         <v>308</v>
       </c>
       <c r="G113" t="n">
-        <v>-270235.6384999999</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4308,24 +4093,15 @@
         <v>4890.0435</v>
       </c>
       <c r="G114" t="n">
-        <v>-270235.6384999999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4347,24 +4123,15 @@
         <v>9780</v>
       </c>
       <c r="G115" t="n">
-        <v>-270235.6384999999</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4386,24 +4153,15 @@
         <v>12500</v>
       </c>
       <c r="G116" t="n">
-        <v>-257735.6384999999</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4425,24 +4183,15 @@
         <v>19009.8456</v>
       </c>
       <c r="G117" t="n">
-        <v>-276745.4840999999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4464,24 +4213,15 @@
         <v>14257</v>
       </c>
       <c r="G118" t="n">
-        <v>-262488.4840999999</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4503,24 +4243,15 @@
         <v>2848</v>
       </c>
       <c r="G119" t="n">
-        <v>-262488.4840999999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4542,24 +4273,15 @@
         <v>875.4621</v>
       </c>
       <c r="G120" t="n">
-        <v>-262488.4840999999</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4581,24 +4303,15 @@
         <v>31800</v>
       </c>
       <c r="G121" t="n">
-        <v>-262488.4840999999</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4620,24 +4333,15 @@
         <v>16413.5294</v>
       </c>
       <c r="G122" t="n">
-        <v>-262488.4840999999</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4659,24 +4363,15 @@
         <v>13.7713</v>
       </c>
       <c r="G123" t="n">
-        <v>-262502.2554</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4698,24 +4393,15 @@
         <v>64860</v>
       </c>
       <c r="G124" t="n">
-        <v>-262502.2554</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4737,24 +4423,15 @@
         <v>60600.2266</v>
       </c>
       <c r="G125" t="n">
-        <v>-262502.2554</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4776,24 +4453,15 @@
         <v>4270</v>
       </c>
       <c r="G126" t="n">
-        <v>-262502.2554</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4815,24 +4483,15 @@
         <v>4270</v>
       </c>
       <c r="G127" t="n">
-        <v>-262502.2554</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4854,24 +4513,15 @@
         <v>7820.2266</v>
       </c>
       <c r="G128" t="n">
-        <v>-262502.2554</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4893,24 +4543,15 @@
         <v>10310</v>
       </c>
       <c r="G129" t="n">
-        <v>-262502.2554</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
